--- a/Assets/StreamingAssets/StoryScript4.xlsx
+++ b/Assets/StreamingAssets/StoryScript4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A56B926-7C4B-5A49-AA96-0E18CD51B84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D118BF79-43A6-4D44-A57E-490A1AED2A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="237">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,18 +281,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pleased to meet you both—I am Di Renjie, and this is my attendant, Yao Chong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>We departed from Luoyang and are on our way to Pengze County.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>We got lost in the mountains earlier today and stumbled upon Qingliu Manor by chance. The manor lord kindly invited us to this evening’s banquet.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Didn’t expect two such young men to have traveled so far already.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>My name’s Lee. I run a blacksmith shop in the county town at the foot of the mountain.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This here is Lai—he’s been staying at the manor for a few days now.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,14 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I’m a fairly well-known blacksmith in town. This time, I came at the manor lord’s request to forge a fine pair of twin sabers.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>At lunch, when I presented the twin sabers, Lord Xu was overjoyed and immediately replaced the old blades he had been wearing.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>So those twin sabers he wore during our afternoon visit were your handiwork—truly extraordinary weapons.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,18 +329,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Although it was our first meeting, this blacksmith Lee was surprisingly talkative and warm.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(The one beside him, however, remained completely silent.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Huh? Brother Lee, is your leg injured?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(As we spoke, we looked down and saw his right leg wrapped in thick bandages.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,30 +341,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Judging by the way the bandage was wrapped, the wound didn’t look like a beast’s bite at all. It was more like…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dee-Thinking2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A thin, clean cut made by a sharp weapon.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Hearing sir mumble to himself, I became even more puzzled. Why would Brother Lee lie?)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Let me tell you, if you encounter a wild beast in the mountains, never panic and flee.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Turning your back is the most dangerous thing. I saw it was a young tiger.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>So I quickly drew the dagger at my waist and faced it head-on.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,18 +372,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master Di, allow me to make an introduction.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ming-Smile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This is a revered monk who traveled from the distant land of Tianzhu. His Dharma name is Kongyuan.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Ming only introduced the stranger to us, which implied he had already met Lee and Lai before.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,10 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Greetings, Master Di. I am Kongyuan. I heard from Ming that you are from Luoyang.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kong-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,10 +408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>You’ve both journeyed across mountains to reach Qingliu Manor. Our meeting must be fated.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A pleasure to meet you.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,26 +448,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This rain is intense. Good thing I arrived before it started—an umbrella wouldn’t have helped much.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lee-Thinking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Whenever it rains heavily, the manor’s front courtyard tends to flood.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>After the banquet, if you return to your rooms, take the corridor path, or you’ll soak your shoes and socks.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As he finished speaking, Steward He and Ling began moving through the hall, setting out appetizers for the banquet.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(At that moment, a familiar figure caught my eye. It was Doctor Ran. Our eyes met, and she gave me a small nod.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -552,10 +480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Chen looked as if he couldn’t wait any longer, and behind him followed a stranger.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>So this is the esteemed guest from Luoyang you mentioned?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -572,18 +496,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I am Quan, a guard of Qingquan Manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(This young man stood tall and firm, like a resilient pine. A determined expression hovered faintly on his face.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I am Di Renjie. A pleasure to meet you.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(After some polite greetings, the two manor guards took seats at another table.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -596,10 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The manor lord said I’m your senior, so naturally I should sit beside you.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Quan-Angry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,14 +544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Lord Xu—had yet to make an appearance.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dear guests, the manor lord had urgent matters to attend to and instructed me earlier—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He-Pity2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -648,10 +552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>My sincere apologies. Please enjoy some sake and appetizers in the meantime.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He-Regular2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -660,34 +560,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Young master, I don’t know the specifics. Everything was arranged in haste by the manor lord.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alright then, but why aren’t Fu and my mother here either?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Madam is bedridden. As for Master Fu, he said he didn’t want to upset the lord by attending, so he’s staying away too.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He-Sad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sir, that means aside from Ming’s mother Madam Mei, Master Fu, and Lord Xu who's attending to urgent business—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Everyone else in the manor is now gathered in this banquet hall.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(And so, the guests continued to nibble on appetizers as they waited patiently for the lord to arrive.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Only one person stood up upon hearing the news, preparing to leave.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -716,22 +600,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Fifteen minutes into the Wu hour.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>By the way, how did you come to know Lai?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master Di, you’ll laugh, but among everyone here, Lai was the only one who supported my decision to give up inheriting my father’s position and pursue my literary dreams.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hmph! That’s right! Young Master Ming’s poetry has deep meaning, and his calligraphy is elegant—I really enjoy it!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lai-Smile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,34 +612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Thirty minutes into the Wu hour.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ling, you should get some rest—you’ve been working all afternoon.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ling-Regular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alright, thank you, Steward He.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ling-Smile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Even the servants are turning in for the night—why hasn’t the lord appeared?)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Suddenly, Ming stood up.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -784,10 +628,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>One didn’t come, and now another one’s left. What a drag. You all eat without me.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lai-Thinking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -796,14 +636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Forty-five minutes into the Wu hour.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(While we waited, Blacksmith Lee continued his story about the tiger.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Speaking of my leg injury, thank heavens Doctor Ran was here.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -816,10 +648,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(So that’s why Ran is still at the manor tonight—she stayed to treat Blacksmith Lee.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ran</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -848,10 +676,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ming, why are you completely soaked? What happened to your umbrella?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>When I got downstairs, a sudden gust of wind swept it right out of my hands and into the sky.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -860,54 +684,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Seeing this, Ling immediately brought over a blanket and draped it over the young master.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Wrapped in the blanket, Ming wiped his soaked hair as he returned to his seat.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Young master, did you find the manor lord?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He-Thinking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I asked my mother and Master Fu—neither of them has seen him.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Just what kind of urgent matter is he handling?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The top of the Wu hour.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Time passed, and the banquet was now a full half-hour late.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Still, there was no sign of the manor lord.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(At last, Ming gathered his courage, slammed the table, and stood up.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Steward He, bring out the food. We’re starting the banquet!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But the lord, he…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>If he never shows up, are we supposed to wait until morning?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -916,22 +708,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Steward He stopped protesting and began serving the dishes with Ling.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(As the delicious food was served, the hall filled with the sounds of clinking cups and lively conversation.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Thirty minutes past the beginning of the Wu hour.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Master Di, please go ahead and eat—I’m still worried about my father.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I’ll go search for him again.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -952,14 +732,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Steward He, please bring a few more lanterns.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes, young master.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He-Regular1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -981,6 +753,234 @@
   </si>
   <si>
     <t>Waterfall_Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huh? Lee, is your leg injured?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allow me to make an introduction.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greetings. I am Kong. I heard from Ming that you are from Luoyang.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Judge Dee. A pleasure to meet you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Lord said I’m your senior, so naturally I should sit beside you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dear guests, the Lord had urgent matters to attend to and instructed me earlier—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hmph! That’s right! Ming’s poetry has deep meaning, and his calligraphy is elegant—I really enjoy it!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(While we waited, Lee continued his story about the tiger.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I asked my mother and Fu—neither of them has seen him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir, please go ahead and eat—I’m still worried about my father.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pleased to meet you both—I am Judge Dee, and this is my student, Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">We got lost in the mountains earlier today and stumbled upon Qingliu Manor by chance. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Lord kindly invited us to this evening’s banquet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My name’s Lee. I run a blacksmith shop in the JiuJiang county at the foot of the mountain.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m a fairly well-known blacksmith in JiuJiang county. This time, I came at the Lord’s request to forge a fine pair of twin sabers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>At lunch, when I presented the twin sabers, the Lord was overjoyed and immediately replaced the old blades he had been wearing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Although it was our first meeting, Lee was surprisingly talkative and warm.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turning your back is the most dangerous thing. I saw it was a tiger.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a revered monk who traveled from the distant land of Tianzhu.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>His Dharma name is Kong.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You’ve both journeyed across mountains to reach Qingliu Manor. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our meeting must be fated.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This rain is intense. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good thing I arrived before it started—an umbrella wouldn’t have helped much.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whenever it rains heavily, the manor’s frontyard tends to flood.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As he finished speaking, butler He and chef Ling began moving through the hall, setting out appetizers for the banquet.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Chen looked as if she couldn’t wait any longer, and behind her followed a stranger.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Quan, a guard of Qingliu Manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The Lord—had yet to make an appearance.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My sincere apologies. Please enjoy some longevity noodles and ring-shaped pastry in the meantime.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Young Lord, I don’t know the specifics. Everything was arranged in haste by the Lord.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madam is bedridden. As for Fu, he said he didn’t want to upset the Lord by attending, so he’s staying away too.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir, that means aside from Ming’s mother Madam Mei, Fu, and the Lord who's attending to urgent business—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(And so, the guests continued to nibble on appetizers as they waited patiently for the Lord to arrive.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sir,  you’ll laugh, but among everyone here, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lai was the only one who supported my decision to give up inheriting my father’s position and pursue my literary dreams.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">One didn’t come, and now another one’s left. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What a drag. You all eat without me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(So that’s why Ran is still at the manor tonight—she stayed to treat Lee.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why are you completely soaked? What happened to your umbrella?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Seeing this, Ling immediately brought over a blanket and draped it over the Young Lord.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did you find the Lord?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The middle of the Xu hour (8 PM).)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Fifteen minutes into the Xu hour (7.15 PM).)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Thirty minutes into the Xu hour (7.30 PM).)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Time passed, and the banquet was now a full hour late.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Still, there was no sign of the Lord.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Butler He, bring out the food. We’re starting the banquet!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But the Lord, he…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Butler  He stopped protesting and began serving the dishes with Ling.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Butler  He, please bring a few more lanterns.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, Young Lord.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Thirty minutes past the middle of the Xu hour (8.30 PM).)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Forty-five minutes into Xu hour (7.45 PM).)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -988,7 +988,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1004,8 +1004,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线 (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1024,6 +1038,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1039,7 +1059,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,6 +1070,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1388,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66:N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1468,7 +1497,7 @@
         <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -1658,7 +1687,7 @@
     </row>
     <row r="15" spans="1:16" ht="34">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>58</v>
@@ -1701,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1721,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -1736,12 +1765,12 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="51">
+    <row r="19" spans="1:12" ht="34">
       <c r="A19" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -1756,15 +1785,15 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="34">
+    <row r="20" spans="1:12" ht="17">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1778,13 +1807,13 @@
     </row>
     <row r="21" spans="1:12" ht="34">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -1798,13 +1827,13 @@
     </row>
     <row r="22" spans="1:12" ht="34">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1812,21 +1841,19 @@
       <c r="E22" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="17">
+    <row r="23" spans="1:12" ht="34">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -1835,24 +1862,20 @@
         <v>45</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="2">
-        <v>500</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="51">
+        <v>17</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="17">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -1867,18 +1890,18 @@
         <v>500</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="51">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1886,19 +1909,25 @@
       <c r="E25" t="s">
         <v>45</v>
       </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" ht="34">
+      <c r="J25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="2">
+        <v>500</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="51">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1912,13 +1941,13 @@
     </row>
     <row r="27" spans="1:12" ht="34">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1926,15 +1955,19 @@
       <c r="E27" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="51">
+    <row r="28" spans="1:12" ht="34">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1942,10 +1975,15 @@
       <c r="E28" t="s">
         <v>45</v>
       </c>
+      <c r="J28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="34">
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -1954,27 +1992,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="17">
-      <c r="A30" t="s">
+    <row r="30" spans="1:12" ht="34">
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="17">
+      <c r="A31" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" t="s">
         <v>37</v>
       </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="34">
-      <c r="B31" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
@@ -1983,14 +2021,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="34">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -1998,57 +2030,51 @@
       <c r="E32" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="3" t="s">
+    </row>
+    <row r="33" spans="1:14" ht="34">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K33" s="2">
         <v>0</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="51">
-      <c r="A33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" ht="17">
+    <row r="34" spans="1:14" ht="34">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -2063,9 +2089,15 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="51">
+    <row r="35" spans="1:14" ht="34">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>86</v>
+        <v>197</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -2080,15 +2112,12 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="34">
+    <row r="36" spans="1:14" ht="34">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -2103,15 +2132,15 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" ht="34">
+    <row r="37" spans="1:14" ht="34">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -2119,19 +2148,28 @@
       <c r="E37" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="34">
+    <row r="38" spans="1:14" ht="17">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -2139,22 +2177,20 @@
       <c r="E38" t="s">
         <v>45</v>
       </c>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="34">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
+    <row r="39" spans="1:14" ht="51">
       <c r="B39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
@@ -2162,60 +2198,53 @@
       <c r="E39" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="3" t="s">
+    </row>
+    <row r="40" spans="1:14" ht="51">
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="17">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" ht="17">
-      <c r="A40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" ht="51">
-      <c r="B41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="51">
+      <c r="K41" s="2">
+        <v>500</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="34">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>94</v>
+        <v>198</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
@@ -2223,13 +2252,22 @@
       <c r="E42" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="17">
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="17">
       <c r="A43" t="s">
         <v>27</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
@@ -2240,25 +2278,15 @@
       <c r="E43" t="s">
         <v>45</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" s="2">
-        <v>500</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="34">
-      <c r="A44" t="s">
-        <v>27</v>
-      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+    </row>
+    <row r="44" spans="1:14" ht="51">
       <c r="B44" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
@@ -2266,13 +2294,25 @@
       <c r="E44" t="s">
         <v>45</v>
       </c>
-      <c r="J44" s="2"/>
+      <c r="J44" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" ht="51">
+      <c r="M44" s="6"/>
+      <c r="N44" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="34">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
       <c r="B45" s="1" t="s">
-        <v>98</v>
+        <v>182</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
@@ -2281,20 +2321,24 @@
         <v>45</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" ht="34">
+        <v>22</v>
+      </c>
+      <c r="K45" s="2">
+        <v>500</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="34">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
@@ -2302,25 +2346,25 @@
       <c r="E46" t="s">
         <v>45</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="N46" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="2">
-        <v>500</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="34">
+    </row>
+    <row r="47" spans="1:14" ht="34">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
@@ -2331,16 +2375,12 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" ht="34">
-      <c r="A48" t="s">
-        <v>99</v>
-      </c>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+    </row>
+    <row r="48" spans="1:14" ht="34">
       <c r="B48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -2351,10 +2391,20 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="49" spans="1:16" ht="34">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
       <c r="B49" s="1" t="s">
-        <v>106</v>
+        <v>200</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
@@ -2366,15 +2416,15 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:16" ht="34">
+    <row r="50" spans="1:16" ht="17">
       <c r="A50" t="s">
         <v>27</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
@@ -2391,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -2408,7 +2458,7 @@
     </row>
     <row r="52" spans="1:16" ht="34">
       <c r="B52" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
@@ -2424,7 +2474,7 @@
     </row>
     <row r="53" spans="1:16" ht="34">
       <c r="B53" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -2435,7 +2485,7 @@
     </row>
     <row r="54" spans="1:16" ht="34">
       <c r="B54" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
@@ -2446,7 +2496,7 @@
     </row>
     <row r="55" spans="1:16" ht="34">
       <c r="B55" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
@@ -2457,7 +2507,7 @@
     </row>
     <row r="56" spans="1:16" ht="68">
       <c r="B56" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
@@ -2468,7 +2518,7 @@
     </row>
     <row r="57" spans="1:16" ht="51">
       <c r="B57" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
@@ -2479,7 +2529,7 @@
     </row>
     <row r="58" spans="1:16" ht="51">
       <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
@@ -2493,7 +2543,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
         <v>40</v>
@@ -2502,56 +2552,47 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O59" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="P59" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="34">
+    <row r="60" spans="1:16" ht="17">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="34">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" s="2">
-        <v>500</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="34">
@@ -2559,261 +2600,278 @@
         <v>27</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
-      </c>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="1:16" ht="51">
+        <v>102</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" s="2">
+        <v>500</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="34">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
       <c r="B63" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
+      </c>
+      <c r="C63" t="s">
+        <v>84</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:16" ht="51">
       <c r="B64" s="1" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="34">
+        <v>102</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="51">
       <c r="B65" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="34">
+        <v>102</v>
+      </c>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+    </row>
+    <row r="66" spans="1:14" ht="34">
       <c r="B66" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="34">
-      <c r="A67" t="s">
-        <v>126</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+    </row>
+    <row r="67" spans="1:14" ht="34">
       <c r="B67" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="51">
+        <v>102</v>
+      </c>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="34">
+      <c r="A68" t="s">
+        <v>108</v>
+      </c>
       <c r="B68" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
+      </c>
+      <c r="C68" t="s">
+        <v>110</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="34">
-      <c r="A69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="51">
+      <c r="B69" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="34">
+      <c r="A70" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" t="s">
-        <v>117</v>
-      </c>
-      <c r="J69" s="2" t="s">
+      <c r="B70" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>102</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K70" s="2">
         <v>500</v>
       </c>
-      <c r="L69" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="17">
-      <c r="A70" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" t="s">
-        <v>131</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" t="s">
-        <v>117</v>
-      </c>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="1:12" ht="51">
+      <c r="L70" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="17">
+      <c r="A71" t="s">
+        <v>114</v>
+      </c>
       <c r="B71" s="1" t="s">
-        <v>135</v>
+        <v>207</v>
+      </c>
+      <c r="C71" t="s">
+        <v>112</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>117</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="17">
-      <c r="A72" t="s">
+    <row r="72" spans="1:14" ht="51">
+      <c r="B72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>102</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:14" ht="17">
+      <c r="A73" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B73" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" t="s">
         <v>16</v>
       </c>
-      <c r="D72" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="34">
+      <c r="B74" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="17">
+      <c r="A75" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="34">
-      <c r="B73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="17">
-      <c r="A74" t="s">
-        <v>126</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" t="s">
-        <v>139</v>
-      </c>
-      <c r="D74" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" t="s">
-        <v>117</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="C75" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>102</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H75" s="3">
         <v>0</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J74" s="2" t="s">
+      <c r="I75" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K75" s="2">
         <v>0</v>
       </c>
-      <c r="L74" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="34">
-      <c r="A75" t="s">
-        <v>133</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C75" t="s">
-        <v>141</v>
-      </c>
-      <c r="D75" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" t="s">
-        <v>117</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:12" ht="34">
+      <c r="L75" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="34">
       <c r="A76" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -2822,21 +2880,21 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="34">
+    <row r="77" spans="1:14" ht="34">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
       </c>
       <c r="E77" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -2845,84 +2903,81 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="51">
+    <row r="78" spans="1:14" ht="34">
+      <c r="A78" t="s">
+        <v>108</v>
+      </c>
       <c r="B78" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
+      </c>
+      <c r="C78" t="s">
+        <v>123</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>117</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="51">
+    <row r="79" spans="1:14" ht="51">
       <c r="B79" s="1" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="51">
+        <v>102</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:14" ht="51">
       <c r="B80" s="1" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="34">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="51">
       <c r="B81" s="1" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="34">
-      <c r="A82" t="s">
-        <v>38</v>
-      </c>
       <c r="B82" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C82" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>117</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K82" s="2">
-        <v>500</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="34">
@@ -2930,36 +2985,42 @@
         <v>38</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>117</v>
-      </c>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" s="2">
+        <v>500</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="84" spans="1:12" ht="34">
       <c r="A84" t="s">
         <v>38</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
       </c>
       <c r="E84" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -2967,19 +3028,19 @@
     </row>
     <row r="85" spans="1:12" ht="34">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="D85" t="s">
         <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -2987,19 +3048,19 @@
     </row>
     <row r="86" spans="1:12" ht="34">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C86" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="D86" t="s">
         <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -3007,287 +3068,281 @@
     </row>
     <row r="87" spans="1:12" ht="34">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="D87" t="s">
         <v>15</v>
       </c>
       <c r="E87" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="51">
+    <row r="88" spans="1:12" ht="34">
       <c r="A88" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C88" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>117</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="51">
+    <row r="89" spans="1:12" ht="34">
       <c r="A89" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="D89" t="s">
         <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K89" s="2">
-        <v>500</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:12" ht="34">
       <c r="A90" t="s">
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="C90" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>102</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K90" s="2">
+        <v>500</v>
+      </c>
+      <c r="L90" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D90" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" t="s">
-        <v>117</v>
-      </c>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-    </row>
-    <row r="91" spans="1:12" ht="51">
+    </row>
+    <row r="91" spans="1:12" ht="34">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
       <c r="B91" s="1" t="s">
-        <v>162</v>
+        <v>133</v>
+      </c>
+      <c r="C91" t="s">
+        <v>40</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>117</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="34">
+    <row r="92" spans="1:12" ht="51">
       <c r="B92" s="1" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="D92" t="s">
         <v>15</v>
       </c>
       <c r="E92" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="1:12" ht="34">
+      <c r="B93" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" t="s">
+        <v>102</v>
+      </c>
+      <c r="J93" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K93" s="2">
         <v>500</v>
       </c>
-      <c r="L92" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="17">
-      <c r="A93" t="s">
-        <v>133</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C93" t="s">
-        <v>132</v>
-      </c>
-      <c r="D93" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" t="s">
-        <v>117</v>
-      </c>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
+      <c r="L93" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="94" spans="1:12" ht="17">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C94" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
       </c>
       <c r="E94" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="34">
+    <row r="95" spans="1:12" ht="17">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C95" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
       </c>
       <c r="E95" t="s">
-        <v>117</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
     <row r="96" spans="1:12" ht="34">
+      <c r="A96" t="s">
+        <v>114</v>
+      </c>
       <c r="B96" s="1" t="s">
-        <v>167</v>
+        <v>137</v>
+      </c>
+      <c r="C96" t="s">
+        <v>113</v>
       </c>
       <c r="D96" t="s">
         <v>15</v>
       </c>
       <c r="E96" t="s">
-        <v>117</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
     </row>
     <row r="97" spans="1:12" ht="34">
-      <c r="A97" t="s">
+      <c r="B97" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="34">
+      <c r="A98" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C97" t="s">
-        <v>169</v>
-      </c>
-      <c r="D97" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="34">
       <c r="B98" s="1" t="s">
-        <v>170</v>
+        <v>139</v>
+      </c>
+      <c r="C98" t="s">
+        <v>140</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="17">
-      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="34">
+      <c r="B99" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="17">
+      <c r="A100" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" t="s">
         <v>14</v>
       </c>
-      <c r="D99" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="68">
-      <c r="A100" t="s">
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="17">
+      <c r="A101" t="s">
         <v>27</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B101" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" t="s">
         <v>33</v>
       </c>
-      <c r="D100" t="s">
-        <v>15</v>
-      </c>
-      <c r="E100" t="s">
-        <v>117</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K100" s="2">
-        <v>500</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="51">
-      <c r="A101" t="s">
-        <v>70</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C101" t="s">
-        <v>174</v>
-      </c>
       <c r="D101" t="s">
         <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>22</v>
@@ -3296,107 +3351,120 @@
         <v>500</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="51">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
       <c r="B102" s="1" t="s">
-        <v>175</v>
+        <v>215</v>
+      </c>
+      <c r="C102" t="s">
+        <v>33</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
       </c>
       <c r="E102" t="s">
-        <v>117</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
     </row>
     <row r="103" spans="1:12" ht="34">
+      <c r="A103" t="s">
+        <v>67</v>
+      </c>
       <c r="B103" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
+      </c>
+      <c r="C103" t="s">
+        <v>142</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
       </c>
       <c r="E103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="34">
-      <c r="A104" t="s">
-        <v>38</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K103" s="2">
+        <v>500</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="51">
       <c r="B104" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C104" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
       </c>
       <c r="E104" t="s">
-        <v>117</v>
-      </c>
-      <c r="J104" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="34">
+      <c r="B105" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="17">
+      <c r="B106" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="34">
+      <c r="A107" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" t="s">
+        <v>102</v>
+      </c>
+      <c r="J107" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K104" s="2">
+      <c r="K107" s="2">
         <v>500</v>
       </c>
-      <c r="L104" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="17">
-      <c r="A105" t="s">
-        <v>179</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C105" t="s">
-        <v>181</v>
-      </c>
-      <c r="D105" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" t="s">
-        <v>117</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-    </row>
-    <row r="106" spans="1:12" ht="34">
-      <c r="B106" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D106" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="17">
-      <c r="B107" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D107" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="34">
+      <c r="L107" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="17">
       <c r="A108" t="s">
         <v>27</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -3405,103 +3473,97 @@
         <v>15</v>
       </c>
       <c r="E108" t="s">
-        <v>117</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K108" s="2">
-        <v>500</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
     </row>
     <row r="109" spans="1:12" ht="17">
-      <c r="A109" t="s">
-        <v>27</v>
-      </c>
       <c r="B109" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C109" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>117</v>
-      </c>
-      <c r="J109" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
     <row r="110" spans="1:12" ht="17">
+      <c r="A110" t="s">
+        <v>67</v>
+      </c>
       <c r="B110" s="1" t="s">
-        <v>186</v>
+        <v>216</v>
+      </c>
+      <c r="C110" t="s">
+        <v>148</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
       </c>
       <c r="E110" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-    </row>
-    <row r="111" spans="1:12" ht="34">
+        <v>22</v>
+      </c>
+      <c r="K110" s="2">
+        <v>500</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="17">
       <c r="A111" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="C111" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
       </c>
       <c r="E111" t="s">
-        <v>117</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K111" s="2">
-        <v>500</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>188</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
     </row>
     <row r="112" spans="1:12" ht="34">
       <c r="B112" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" ht="34">
-      <c r="B113" s="1" t="s">
-        <v>190</v>
+      <c r="B113" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="D113" t="s">
         <v>15</v>
       </c>
       <c r="E113" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>17</v>
@@ -3511,30 +3573,30 @@
     </row>
     <row r="114" spans="1:12" ht="34">
       <c r="B114" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D114" t="s">
         <v>15</v>
       </c>
       <c r="E114" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="34">
       <c r="A115" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C115" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
       </c>
       <c r="E115" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>22</v>
@@ -3548,19 +3610,19 @@
     </row>
     <row r="116" spans="1:12" ht="34">
       <c r="A116" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C116" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -3568,33 +3630,33 @@
     </row>
     <row r="117" spans="1:12" ht="34">
       <c r="A117" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C117" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D117" t="s">
         <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="51">
+    <row r="118" spans="1:12" ht="34">
       <c r="B118" s="1" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
       </c>
       <c r="E118" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -3602,19 +3664,19 @@
     </row>
     <row r="119" spans="1:12" ht="17">
       <c r="A119" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="C119" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="D119" t="s">
         <v>15</v>
       </c>
       <c r="E119" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -3626,24 +3688,24 @@
         <v>0</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="17">
       <c r="A120" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="C120" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="D120" t="s">
         <v>15</v>
       </c>
       <c r="E120" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -3654,10 +3716,10 @@
     </row>
     <row r="121" spans="1:12" ht="17">
       <c r="A121" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="C121" t="s">
         <v>59</v>
@@ -3666,7 +3728,7 @@
         <v>15</v>
       </c>
       <c r="E121" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>17</v>
@@ -3681,13 +3743,13 @@
     </row>
     <row r="122" spans="1:12" ht="34">
       <c r="B122" s="1" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
       </c>
       <c r="E122" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="34">
@@ -3695,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C123" t="s">
         <v>32</v>
@@ -3704,7 +3766,7 @@
         <v>15</v>
       </c>
       <c r="E123" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="34">
@@ -3712,16 +3774,16 @@
         <v>27</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C124" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="D124" t="s">
         <v>15</v>
       </c>
       <c r="E124" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>22</v>
@@ -3735,13 +3797,13 @@
     </row>
     <row r="125" spans="1:12" ht="51">
       <c r="B125" s="1" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D125" t="s">
         <v>15</v>
       </c>
       <c r="E125" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>17</v>
@@ -3751,13 +3813,13 @@
     </row>
     <row r="126" spans="1:12" ht="34">
       <c r="B126" s="1" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="D126" t="s">
         <v>15</v>
       </c>
       <c r="E126" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
@@ -3768,16 +3830,16 @@
         <v>38</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C127" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
       </c>
       <c r="E127" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="34">
@@ -3785,16 +3847,16 @@
         <v>27</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C128" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
       </c>
       <c r="E128" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>22</v>
@@ -3811,7 +3873,7 @@
         <v>27</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="C129" t="s">
         <v>30</v>
@@ -3820,21 +3882,21 @@
         <v>15</v>
       </c>
       <c r="E129" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="17">
-      <c r="B130" s="1" t="s">
-        <v>212</v>
+    <row r="130" spans="1:12" ht="34">
+      <c r="B130" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="D130" t="s">
         <v>15</v>
       </c>
       <c r="E130" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>17</v>
@@ -3844,35 +3906,35 @@
     </row>
     <row r="131" spans="1:12" ht="34">
       <c r="B131" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D131" t="s">
         <v>15</v>
       </c>
       <c r="E131" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="34">
       <c r="B132" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D132" t="s">
         <v>15</v>
       </c>
       <c r="E132" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="34">
       <c r="B133" s="1" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="D133" t="s">
         <v>15</v>
       </c>
       <c r="E133" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="34">
@@ -3880,7 +3942,7 @@
         <v>27</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C134" t="s">
         <v>30</v>
@@ -3889,7 +3951,7 @@
         <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>22</v>
@@ -3906,16 +3968,16 @@
         <v>38</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C135" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="D135" t="s">
         <v>15</v>
       </c>
       <c r="E135" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
@@ -3926,7 +3988,7 @@
         <v>27</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -3935,7 +3997,7 @@
         <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
@@ -3946,7 +4008,7 @@
         <v>27</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C137" t="s">
         <v>30</v>
@@ -3955,7 +4017,7 @@
         <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
@@ -3963,13 +4025,13 @@
     </row>
     <row r="138" spans="1:12" ht="34">
       <c r="B138" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D138" t="s">
         <v>15</v>
       </c>
       <c r="E138" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>17</v>
@@ -3979,24 +4041,24 @@
     </row>
     <row r="139" spans="1:12" ht="51">
       <c r="B139" s="1" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="34">
-      <c r="B140" s="1" t="s">
-        <v>222</v>
+      <c r="B140" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="D140" t="s">
         <v>15</v>
       </c>
       <c r="E140" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="34">
@@ -4004,7 +4066,7 @@
         <v>27</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="C141" t="s">
         <v>30</v>
@@ -4013,7 +4075,7 @@
         <v>15</v>
       </c>
       <c r="E141" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>22</v>
@@ -4022,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>22</v>
@@ -4039,7 +4101,7 @@
         <v>27</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="C142" t="s">
         <v>30</v>
@@ -4048,7 +4110,7 @@
         <v>15</v>
       </c>
       <c r="E142" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -4062,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="C143" t="s">
         <v>35</v>
@@ -4071,7 +4133,7 @@
         <v>15</v>
       </c>
       <c r="E143" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -4085,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="C144" t="s">
         <v>35</v>
@@ -4094,7 +4156,7 @@
         <v>15</v>
       </c>
       <c r="E144" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -4108,13 +4170,13 @@
         <v>27</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="D145" t="s">
         <v>15</v>
       </c>
       <c r="E145" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>17</v>
@@ -4129,13 +4191,13 @@
     </row>
     <row r="146" spans="1:12" ht="51">
       <c r="B146" s="1" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="D146" t="s">
         <v>15</v>
       </c>
       <c r="E146" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="17">
@@ -4143,7 +4205,7 @@
         <v>27</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C147" t="s">
         <v>34</v>
@@ -4152,7 +4214,7 @@
         <v>15</v>
       </c>
       <c r="E147" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>22</v>
@@ -4169,16 +4231,16 @@
         <v>38</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C148" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="D148" t="s">
         <v>15</v>
       </c>
       <c r="E148" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>17</v>
@@ -4191,17 +4253,14 @@
         <v>25</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="C149" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="E149" t="s">
-        <v>117</v>
-      </c>
-      <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/StreamingAssets/StoryScript4.xlsx
+++ b/Assets/StreamingAssets/StoryScript4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D118BF79-43A6-4D44-A57E-490A1AED2A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7526D13A-9993-D74D-B602-13795BDF5623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -388,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>As it happens, I was giving sermons at the White Horse Temple in Luoyang before coming here.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kong-Smile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -828,10 +824,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This is a revered monk who traveled from the distant land of Tianzhu.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>His Dharma name is Kong.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -856,10 +848,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As he finished speaking, butler He and chef Ling began moving through the hall, setting out appetizers for the banquet.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Chen looked as if she couldn’t wait any longer, and behind her followed a stranger.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -982,6 +970,15 @@
   <si>
     <t>History9</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a revered monk who traveled from the distant land of &lt;color=#FFCC000&gt;Tianzhu&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>As it happens, I was giving sermons at the &lt;color=#FFCC000&gt;White Horse Temple&lt;/color&gt; in Luoyang before coming here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As he finished speaking, butler He and chef Ling began moving through the hall, setting out &lt;color=#FFCC000&gt;longevity noodles&lt;/color&gt; for the banquet.)&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -1417,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66:N67"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1497,7 +1494,7 @@
         <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -1687,7 +1684,7 @@
     </row>
     <row r="15" spans="1:16" ht="34">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>58</v>
@@ -1730,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1770,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -1790,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -1807,7 +1804,7 @@
     </row>
     <row r="21" spans="1:12" ht="34">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>62</v>
@@ -1830,7 +1827,7 @@
         <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" t="s">
         <v>59</v>
@@ -1898,7 +1895,7 @@
         <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s">
         <v>59</v>
@@ -1924,7 +1921,7 @@
         <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -1983,7 +1980,7 @@
     </row>
     <row r="29" spans="1:12" ht="34">
       <c r="B29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -2008,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -2094,7 +2091,7 @@
         <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -2215,7 +2212,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
         <v>34</v>
@@ -2241,7 +2238,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="C42" t="s">
         <v>34</v>
@@ -2256,7 +2253,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N42" s="6" t="s">
         <v>22</v>
@@ -2267,7 +2264,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
@@ -2309,7 +2306,7 @@
         <v>86</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s">
         <v>87</v>
@@ -2330,15 +2327,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="34">
+    <row r="46" spans="1:14" ht="51">
       <c r="A46" t="s">
         <v>86</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" t="s">
         <v>88</v>
-      </c>
-      <c r="C46" t="s">
-        <v>89</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
@@ -2350,7 +2347,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N46" s="6" t="s">
         <v>22</v>
@@ -2361,10 +2358,10 @@
         <v>86</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
         <v>90</v>
-      </c>
-      <c r="C47" t="s">
-        <v>91</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
@@ -2380,7 +2377,7 @@
     </row>
     <row r="48" spans="1:14" ht="34">
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -2401,7 +2398,7 @@
         <v>27</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C49" t="s">
         <v>84</v>
@@ -2421,7 +2418,7 @@
         <v>27</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
         <v>84</v>
@@ -2441,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -2458,7 +2455,7 @@
     </row>
     <row r="52" spans="1:16" ht="34">
       <c r="B52" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
@@ -2474,7 +2471,7 @@
     </row>
     <row r="53" spans="1:16" ht="34">
       <c r="B53" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -2485,7 +2482,7 @@
     </row>
     <row r="54" spans="1:16" ht="34">
       <c r="B54" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
@@ -2496,7 +2493,7 @@
     </row>
     <row r="55" spans="1:16" ht="34">
       <c r="B55" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
@@ -2507,7 +2504,7 @@
     </row>
     <row r="56" spans="1:16" ht="68">
       <c r="B56" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
@@ -2518,7 +2515,7 @@
     </row>
     <row r="57" spans="1:16" ht="51">
       <c r="B57" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
@@ -2529,7 +2526,7 @@
     </row>
     <row r="58" spans="1:16" ht="51">
       <c r="B58" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
@@ -2543,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
         <v>40</v>
@@ -2552,10 +2549,10 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P59" t="s">
         <v>22</v>
@@ -2566,16 +2563,16 @@
         <v>64</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="34">
@@ -2583,16 +2580,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="34">
@@ -2600,7 +2597,7 @@
         <v>27</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C62" t="s">
         <v>84</v>
@@ -2609,7 +2606,7 @@
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>22</v>
@@ -2626,7 +2623,7 @@
         <v>27</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
         <v>84</v>
@@ -2635,21 +2632,21 @@
         <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:16" ht="51">
+    <row r="64" spans="1:16" ht="68">
       <c r="B64" s="1" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>17</v>
@@ -2657,7 +2654,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="N64" s="6" t="s">
         <v>22</v>
@@ -2665,39 +2662,39 @@
     </row>
     <row r="65" spans="1:14" ht="51">
       <c r="B65" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
     </row>
     <row r="66" spans="1:14" ht="34">
       <c r="B66" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
     </row>
     <row r="67" spans="1:14" ht="34">
       <c r="B67" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M67" s="6"/>
       <c r="N67" s="6" t="s">
@@ -2706,30 +2703,30 @@
     </row>
     <row r="68" spans="1:14" ht="34">
       <c r="A68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" t="s">
         <v>109</v>
       </c>
-      <c r="C68" t="s">
-        <v>110</v>
-      </c>
       <c r="D68" t="s">
         <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="51">
       <c r="B69" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="34">
@@ -2737,16 +2734,16 @@
         <v>57</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" t="s">
         <v>111</v>
       </c>
-      <c r="C70" t="s">
-        <v>112</v>
-      </c>
       <c r="D70" t="s">
         <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>22</v>
@@ -2755,24 +2752,24 @@
         <v>500</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="17">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -2780,13 +2777,13 @@
     </row>
     <row r="72" spans="1:14" ht="51">
       <c r="B72" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D72" t="s">
         <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>17</v>
@@ -2799,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
@@ -2808,35 +2805,35 @@
         <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="34">
       <c r="B74" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="17">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" t="s">
         <v>117</v>
       </c>
-      <c r="C75" t="s">
-        <v>118</v>
-      </c>
       <c r="D75" t="s">
         <v>15</v>
       </c>
       <c r="E75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>22</v>
@@ -2845,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>22</v>
@@ -2854,24 +2851,24 @@
         <v>0</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="34">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -2882,19 +2879,19 @@
     </row>
     <row r="77" spans="1:14" ht="34">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" t="s">
         <v>120</v>
       </c>
-      <c r="C77" t="s">
-        <v>121</v>
-      </c>
       <c r="D77" t="s">
         <v>15</v>
       </c>
       <c r="E77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -2905,19 +2902,19 @@
     </row>
     <row r="78" spans="1:14" ht="34">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" t="s">
         <v>122</v>
       </c>
-      <c r="C78" t="s">
-        <v>123</v>
-      </c>
       <c r="D78" t="s">
         <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -2928,13 +2925,13 @@
     </row>
     <row r="79" spans="1:14" ht="51">
       <c r="B79" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>17</v>
@@ -2949,35 +2946,35 @@
     </row>
     <row r="80" spans="1:14" ht="51">
       <c r="B80" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="51">
       <c r="B81" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="34">
       <c r="B82" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="34">
@@ -2985,16 +2982,16 @@
         <v>38</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>22</v>
@@ -3011,16 +3008,16 @@
         <v>38</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
       </c>
       <c r="E84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -3031,16 +3028,16 @@
         <v>38</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D85" t="s">
         <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -3051,7 +3048,7 @@
         <v>27</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C86" t="s">
         <v>30</v>
@@ -3060,7 +3057,7 @@
         <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -3071,16 +3068,16 @@
         <v>38</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D87" t="s">
         <v>15</v>
       </c>
       <c r="E87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -3091,7 +3088,7 @@
         <v>27</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C88" t="s">
         <v>30</v>
@@ -3100,7 +3097,7 @@
         <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -3111,16 +3108,16 @@
         <v>38</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D89" t="s">
         <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>17</v>
@@ -3133,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C90" t="s">
         <v>36</v>
@@ -3142,7 +3139,7 @@
         <v>15</v>
       </c>
       <c r="E90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>22</v>
@@ -3159,7 +3156,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C91" t="s">
         <v>40</v>
@@ -3168,7 +3165,7 @@
         <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -3176,13 +3173,13 @@
     </row>
     <row r="92" spans="1:12" ht="51">
       <c r="B92" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D92" t="s">
         <v>15</v>
       </c>
       <c r="E92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>17</v>
@@ -3192,13 +3189,13 @@
     </row>
     <row r="93" spans="1:12" ht="34">
       <c r="B93" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D93" t="s">
         <v>15</v>
       </c>
       <c r="E93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>22</v>
@@ -3207,24 +3204,24 @@
         <v>500</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="17">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
       </c>
       <c r="E94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -3232,19 +3229,19 @@
     </row>
     <row r="95" spans="1:12" ht="17">
       <c r="A95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
       </c>
       <c r="E95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -3252,19 +3249,19 @@
     </row>
     <row r="96" spans="1:12" ht="34">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D96" t="s">
         <v>15</v>
       </c>
       <c r="E96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>17</v>
@@ -3274,13 +3271,13 @@
     </row>
     <row r="97" spans="1:12" ht="34">
       <c r="B97" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D97" t="s">
         <v>15</v>
       </c>
       <c r="E97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="34">
@@ -3288,27 +3285,27 @@
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" t="s">
         <v>139</v>
       </c>
-      <c r="C98" t="s">
-        <v>140</v>
-      </c>
       <c r="D98" t="s">
         <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="34">
       <c r="B99" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
       </c>
       <c r="E99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="17">
@@ -3316,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -3325,7 +3322,7 @@
         <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="17">
@@ -3333,7 +3330,7 @@
         <v>27</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C101" t="s">
         <v>33</v>
@@ -3342,7 +3339,7 @@
         <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>22</v>
@@ -3359,7 +3356,7 @@
         <v>27</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C102" t="s">
         <v>33</v>
@@ -3368,7 +3365,7 @@
         <v>15</v>
       </c>
       <c r="E102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -3379,16 +3376,16 @@
         <v>67</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
       </c>
       <c r="E103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>22</v>
@@ -3397,40 +3394,40 @@
         <v>500</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="51">
       <c r="B104" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
       </c>
       <c r="E104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="34">
       <c r="B105" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D105" t="s">
         <v>15</v>
       </c>
       <c r="E105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="17">
       <c r="B106" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="34">
@@ -3438,7 +3435,7 @@
         <v>27</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -3447,7 +3444,7 @@
         <v>15</v>
       </c>
       <c r="E107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>22</v>
@@ -3464,7 +3461,7 @@
         <v>27</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -3473,7 +3470,7 @@
         <v>15</v>
       </c>
       <c r="E108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
@@ -3481,13 +3478,13 @@
     </row>
     <row r="109" spans="1:12" ht="17">
       <c r="B109" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>17</v>
@@ -3500,16 +3497,16 @@
         <v>67</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
       </c>
       <c r="E110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>22</v>
@@ -3518,7 +3515,7 @@
         <v>500</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="17">
@@ -3526,16 +3523,16 @@
         <v>67</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
       </c>
       <c r="E111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
@@ -3543,13 +3540,13 @@
     </row>
     <row r="112" spans="1:12" ht="34">
       <c r="B112" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
@@ -3557,13 +3554,13 @@
     </row>
     <row r="113" spans="1:12" ht="34">
       <c r="B113" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D113" t="s">
         <v>15</v>
       </c>
       <c r="E113" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>17</v>
@@ -3573,13 +3570,13 @@
     </row>
     <row r="114" spans="1:12" ht="34">
       <c r="B114" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D114" t="s">
         <v>15</v>
       </c>
       <c r="E114" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="34">
@@ -3587,7 +3584,7 @@
         <v>64</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C115" t="s">
         <v>63</v>
@@ -3596,7 +3593,7 @@
         <v>15</v>
       </c>
       <c r="E115" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>22</v>
@@ -3613,7 +3610,7 @@
         <v>64</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C116" t="s">
         <v>63</v>
@@ -3622,7 +3619,7 @@
         <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -3633,7 +3630,7 @@
         <v>64</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C117" t="s">
         <v>63</v>
@@ -3642,7 +3639,7 @@
         <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -3650,13 +3647,13 @@
     </row>
     <row r="118" spans="1:12" ht="34">
       <c r="B118" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
       </c>
       <c r="E118" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -3664,19 +3661,19 @@
     </row>
     <row r="119" spans="1:12" ht="17">
       <c r="A119" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" t="s">
         <v>154</v>
       </c>
-      <c r="C119" t="s">
-        <v>155</v>
-      </c>
       <c r="D119" t="s">
         <v>15</v>
       </c>
       <c r="E119" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -3688,24 +3685,24 @@
         <v>0</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="17">
       <c r="A120" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C120" t="s">
         <v>156</v>
       </c>
-      <c r="C120" t="s">
-        <v>157</v>
-      </c>
       <c r="D120" t="s">
         <v>15</v>
       </c>
       <c r="E120" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -3719,7 +3716,7 @@
         <v>64</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C121" t="s">
         <v>59</v>
@@ -3728,7 +3725,7 @@
         <v>15</v>
       </c>
       <c r="E121" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>17</v>
@@ -3743,13 +3740,13 @@
     </row>
     <row r="122" spans="1:12" ht="34">
       <c r="B122" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
       </c>
       <c r="E122" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="34">
@@ -3757,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C123" t="s">
         <v>32</v>
@@ -3766,7 +3763,7 @@
         <v>15</v>
       </c>
       <c r="E123" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="34">
@@ -3774,16 +3771,16 @@
         <v>27</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124" t="s">
         <v>160</v>
       </c>
-      <c r="C124" t="s">
-        <v>161</v>
-      </c>
       <c r="D124" t="s">
         <v>15</v>
       </c>
       <c r="E124" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>22</v>
@@ -3797,13 +3794,13 @@
     </row>
     <row r="125" spans="1:12" ht="51">
       <c r="B125" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D125" t="s">
         <v>15</v>
       </c>
       <c r="E125" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>17</v>
@@ -3813,33 +3810,30 @@
     </row>
     <row r="126" spans="1:12" ht="34">
       <c r="B126" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D126" t="s">
         <v>15</v>
       </c>
       <c r="E126" t="s">
-        <v>102</v>
-      </c>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
+        <v>101</v>
+      </c>
     </row>
     <row r="127" spans="1:12" ht="17">
       <c r="A127" t="s">
         <v>38</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C127" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
       </c>
       <c r="E127" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="34">
@@ -3847,16 +3841,16 @@
         <v>27</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C128" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
       </c>
       <c r="E128" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>22</v>
@@ -3873,7 +3867,7 @@
         <v>27</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C129" t="s">
         <v>30</v>
@@ -3882,7 +3876,7 @@
         <v>15</v>
       </c>
       <c r="E129" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
@@ -3890,13 +3884,13 @@
     </row>
     <row r="130" spans="1:12" ht="34">
       <c r="B130" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D130" t="s">
         <v>15</v>
       </c>
       <c r="E130" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>17</v>
@@ -3906,35 +3900,35 @@
     </row>
     <row r="131" spans="1:12" ht="34">
       <c r="B131" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D131" t="s">
         <v>15</v>
       </c>
       <c r="E131" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="34">
       <c r="B132" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D132" t="s">
         <v>15</v>
       </c>
       <c r="E132" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="34">
       <c r="B133" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D133" t="s">
         <v>15</v>
       </c>
       <c r="E133" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="34">
@@ -3942,7 +3936,7 @@
         <v>27</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C134" t="s">
         <v>30</v>
@@ -3951,7 +3945,7 @@
         <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>22</v>
@@ -3968,16 +3962,16 @@
         <v>38</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D135" t="s">
         <v>15</v>
       </c>
       <c r="E135" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
@@ -3988,7 +3982,7 @@
         <v>27</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -3997,7 +3991,7 @@
         <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
@@ -4008,7 +4002,7 @@
         <v>27</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C137" t="s">
         <v>30</v>
@@ -4017,7 +4011,7 @@
         <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
@@ -4025,13 +4019,13 @@
     </row>
     <row r="138" spans="1:12" ht="34">
       <c r="B138" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D138" t="s">
         <v>15</v>
       </c>
       <c r="E138" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>17</v>
@@ -4041,24 +4035,24 @@
     </row>
     <row r="139" spans="1:12" ht="51">
       <c r="B139" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="34">
       <c r="B140" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D140" t="s">
         <v>15</v>
       </c>
       <c r="E140" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="34">
@@ -4066,7 +4060,7 @@
         <v>27</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C141" t="s">
         <v>30</v>
@@ -4075,7 +4069,7 @@
         <v>15</v>
       </c>
       <c r="E141" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>22</v>
@@ -4101,7 +4095,7 @@
         <v>27</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C142" t="s">
         <v>30</v>
@@ -4110,7 +4104,7 @@
         <v>15</v>
       </c>
       <c r="E142" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -4124,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C143" t="s">
         <v>35</v>
@@ -4133,7 +4127,7 @@
         <v>15</v>
       </c>
       <c r="E143" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -4147,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C144" t="s">
         <v>35</v>
@@ -4156,7 +4150,7 @@
         <v>15</v>
       </c>
       <c r="E144" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -4170,13 +4164,13 @@
         <v>27</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D145" t="s">
         <v>15</v>
       </c>
       <c r="E145" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>17</v>
@@ -4191,13 +4185,13 @@
     </row>
     <row r="146" spans="1:12" ht="51">
       <c r="B146" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D146" t="s">
         <v>15</v>
       </c>
       <c r="E146" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="17">
@@ -4205,7 +4199,7 @@
         <v>27</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C147" t="s">
         <v>34</v>
@@ -4214,7 +4208,7 @@
         <v>15</v>
       </c>
       <c r="E147" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>22</v>
@@ -4231,16 +4225,16 @@
         <v>38</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C148" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D148" t="s">
         <v>15</v>
       </c>
       <c r="E148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>17</v>
@@ -4253,13 +4247,13 @@
         <v>25</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C149" t="s">
         <v>176</v>
       </c>
-      <c r="C149" t="s">
-        <v>177</v>
-      </c>
       <c r="E149" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/StoryScript4.xlsx
+++ b/Assets/StreamingAssets/StoryScript4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7526D13A-9993-D74D-B602-13795BDF5623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C17042-CE3C-8541-A9F0-D74C9FFC5E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -972,13 +972,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This is a revered monk who traveled from the distant land of &lt;color=#FFCC000&gt;Tianzhu&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>As it happens, I was giving sermons at the &lt;color=#FFCC000&gt;White Horse Temple&lt;/color&gt; in Luoyang before coming here.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As he finished speaking, butler He and chef Ling began moving through the hall, setting out &lt;color=#FFCC000&gt;longevity noodles&lt;/color&gt; for the banquet.)&lt;/color&gt;</t>
+    <t>This is a revered monk who traveled from the distant land of &lt;color=#FFCC00&gt;Tianzhu&lt;/color&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As it happens, I was giving sermons at the &lt;color=#FFCC00&gt;White Horse Temple&lt;/color&gt; in Luoyang before coming here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As he finished speaking, butler He and chef Ling began moving through the hall, setting out &lt;color=#FFCC00&gt;longevity noodles&lt;/color&gt; for the banquet.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
